--- a/Saved_file/EM002/2026_05/sap_data.xlsx
+++ b/Saved_file/EM002/2026_05/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST4619</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12689305</v>
+        <v>10853938</v>
       </c>
       <c r="E2" t="n">
-        <v>2290452</v>
+        <v>1860525</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST5568</t>
+          <t>CUST7231</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13485887</v>
+        <v>20516664</v>
       </c>
       <c r="E3" t="n">
-        <v>2224528</v>
+        <v>2243313</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST3434</t>
+          <t>CUST7722</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20873632</v>
+        <v>19781583</v>
       </c>
       <c r="E4" t="n">
-        <v>4095169</v>
+        <v>3640189</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST4931</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23577103</v>
+        <v>21961938</v>
       </c>
       <c r="E5" t="n">
-        <v>2494337</v>
+        <v>2491604</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST4367</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16520666</v>
+        <v>21532804</v>
       </c>
       <c r="E6" t="n">
-        <v>3062525</v>
+        <v>3365247</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5568</t>
+          <t>CUST5530</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11185304</v>
+        <v>15962161</v>
       </c>
       <c r="E7" t="n">
-        <v>1402830</v>
+        <v>1956195</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST7739</t>
+          <t>CUST6398</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12593100</v>
+        <v>20593438</v>
       </c>
       <c r="E8" t="n">
-        <v>1961386</v>
+        <v>2241641</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8983</t>
+          <t>CUST7620</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11532164</v>
+        <v>15331898</v>
       </c>
       <c r="E9" t="n">
-        <v>1809109</v>
+        <v>1832064</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7698</t>
+          <t>CUST1166</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18080521</v>
+        <v>10524306</v>
       </c>
       <c r="E10" t="n">
-        <v>2881028</v>
+        <v>2075074</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9285</t>
+          <t>CUST7722</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24934908</v>
+        <v>14476407</v>
       </c>
       <c r="E11" t="n">
-        <v>4355677</v>
+        <v>1693655</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2929</t>
+          <t>CUST4529</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13741828</v>
+        <v>16550761</v>
       </c>
       <c r="E12" t="n">
-        <v>2228896</v>
+        <v>2377519</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9477</t>
+          <t>CUST2273</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9785618</v>
+        <v>13569866</v>
       </c>
       <c r="E13" t="n">
-        <v>1020980</v>
+        <v>2361308</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST7006</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17219837</v>
+        <v>11746305</v>
       </c>
       <c r="E14" t="n">
-        <v>2634433</v>
+        <v>2182024</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST7023</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20647684</v>
+        <v>11734360</v>
       </c>
       <c r="E15" t="n">
-        <v>2103942</v>
+        <v>2186534</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST7994</t>
+          <t>CUST1598</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11856670</v>
+        <v>20530298</v>
       </c>
       <c r="E16" t="n">
-        <v>1209398</v>
+        <v>2983524</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2790</t>
+          <t>CUST2327</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11700823</v>
+        <v>9510368</v>
       </c>
       <c r="E17" t="n">
-        <v>1213230</v>
+        <v>1825327</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST6291</t>
+          <t>CUST4253</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14681392</v>
+        <v>12331049</v>
       </c>
       <c r="E18" t="n">
-        <v>2350895</v>
+        <v>1374180</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,22 +1410,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST7698</t>
+          <t>CUST8006</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10334695</v>
+        <v>22888164</v>
       </c>
       <c r="E19" t="n">
-        <v>1316333</v>
+        <v>2352373</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST3294</t>
+          <t>CUST6956</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13908897</v>
+        <v>13152815</v>
       </c>
       <c r="E20" t="n">
-        <v>2536758</v>
+        <v>2031911</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7023</t>
+          <t>CUST9066</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21812642</v>
+        <v>14286631</v>
       </c>
       <c r="E21" t="n">
-        <v>3989068</v>
+        <v>1895058</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST3294</t>
+          <t>CUST8974</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9241247</v>
+        <v>11881549</v>
       </c>
       <c r="E22" t="n">
-        <v>1476459</v>
+        <v>2300488</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST4434</t>
+          <t>CUST7097</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19698873</v>
+        <v>16022893</v>
       </c>
       <c r="E23" t="n">
-        <v>2415261</v>
+        <v>2588813</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9099</t>
+          <t>CUST6501</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10639748</v>
+        <v>15761188</v>
       </c>
       <c r="E24" t="n">
-        <v>1793357</v>
+        <v>1739174</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST2138</t>
+          <t>CUST2085</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12003769</v>
+        <v>14732238</v>
       </c>
       <c r="E25" t="n">
-        <v>2393577</v>
+        <v>2437920</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1179</t>
+          <t>CUST9037</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17779158</v>
+        <v>20925099</v>
       </c>
       <c r="E26" t="n">
-        <v>2269209</v>
+        <v>2191688</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST5382</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10021192</v>
+        <v>17598901</v>
       </c>
       <c r="E27" t="n">
-        <v>1374105</v>
+        <v>1768287</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST3141</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20478952</v>
+        <v>23504576</v>
       </c>
       <c r="E28" t="n">
-        <v>2981923</v>
+        <v>3541645</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST3014</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9281933</v>
+        <v>15902086</v>
       </c>
       <c r="E29" t="n">
-        <v>1250359</v>
+        <v>3073581</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST8501</t>
+          <t>CUST2327</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13884180</v>
+        <v>19551868</v>
       </c>
       <c r="E30" t="n">
-        <v>1728622</v>
+        <v>2876842</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4931</t>
+          <t>CUST7722</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15615287</v>
+        <v>10486224</v>
       </c>
       <c r="E31" t="n">
-        <v>1770871</v>
+        <v>1871027</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST9155</t>
+          <t>CUST7231</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>23838929</v>
+        <v>13082386</v>
       </c>
       <c r="E32" t="n">
-        <v>3950463</v>
+        <v>2561656</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST2007</t>
+          <t>CUST7944</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14786715</v>
+        <v>22264010</v>
       </c>
       <c r="E33" t="n">
-        <v>2635132</v>
+        <v>3727751</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST7994</t>
+          <t>CUST7265</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13361380</v>
+        <v>24452003</v>
       </c>
       <c r="E34" t="n">
-        <v>1442975</v>
+        <v>2616716</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST4003</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24215436</v>
+        <v>18651944</v>
       </c>
       <c r="E35" t="n">
-        <v>3226713</v>
+        <v>3238432</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST9987</t>
+          <t>CUST5043</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21994818</v>
+        <v>23005744</v>
       </c>
       <c r="E36" t="n">
-        <v>2816540</v>
+        <v>4230816</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5549</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>23426506</v>
+        <v>20124226</v>
       </c>
       <c r="E37" t="n">
-        <v>3216300</v>
+        <v>2083621</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST1179</t>
+          <t>CUST9321</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11544283</v>
+        <v>8466454</v>
       </c>
       <c r="E38" t="n">
-        <v>1185738</v>
+        <v>1687910</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST5568</t>
+          <t>CUST8663</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19179180</v>
+        <v>12550558</v>
       </c>
       <c r="E39" t="n">
-        <v>2398775</v>
+        <v>1284234</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST9285</t>
+          <t>CUST4264</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>23004350</v>
+        <v>15155695</v>
       </c>
       <c r="E40" t="n">
-        <v>3565735</v>
+        <v>1925900</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4931</t>
+          <t>CUST4264</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22351420</v>
+        <v>21977197</v>
       </c>
       <c r="E41" t="n">
-        <v>2496575</v>
+        <v>2537018</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5075</t>
+          <t>CUST2327</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9455389</v>
+        <v>22015482</v>
       </c>
       <c r="E42" t="n">
-        <v>1550740</v>
+        <v>3380219</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST6291</t>
+          <t>CUST1913</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11394575</v>
+        <v>18848483</v>
       </c>
       <c r="E43" t="n">
-        <v>1350919</v>
+        <v>3013782</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST8501</t>
+          <t>CUST7265</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22448183</v>
+        <v>20981233</v>
       </c>
       <c r="E44" t="n">
-        <v>2973955</v>
+        <v>3380222</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4434</t>
+          <t>CUST9066</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>22148410</v>
+        <v>22748569</v>
       </c>
       <c r="E45" t="n">
-        <v>3714105</v>
+        <v>3689122</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9285</t>
+          <t>CUST1166</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22619072</v>
+        <v>22654092</v>
       </c>
       <c r="E46" t="n">
-        <v>2919344</v>
+        <v>3853662</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2814</t>
+          <t>CUST1166</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13031384</v>
+        <v>15617368</v>
       </c>
       <c r="E47" t="n">
-        <v>1962187</v>
+        <v>2153038</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST2138</t>
+          <t>CUST1759</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12283307</v>
+        <v>12634232</v>
       </c>
       <c r="E48" t="n">
-        <v>2251662</v>
+        <v>2300779</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4367</t>
+          <t>CUST4264</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12094680</v>
+        <v>15022493</v>
       </c>
       <c r="E49" t="n">
-        <v>2180283</v>
+        <v>2134757</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST7739</t>
+          <t>CUST4837</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8158449</v>
+        <v>13124992</v>
       </c>
       <c r="E50" t="n">
-        <v>1255273</v>
+        <v>2578064</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST3434</t>
+          <t>CUST5376</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21087994</v>
+        <v>15928484</v>
       </c>
       <c r="E51" t="n">
-        <v>3714467</v>
+        <v>2516941</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST7994</t>
+          <t>CUST8854</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13507532</v>
+        <v>9682812</v>
       </c>
       <c r="E52" t="n">
-        <v>1779536</v>
+        <v>1510394</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3379</t>
+          <t>CUST4529</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24781164</v>
+        <v>18314448</v>
       </c>
       <c r="E53" t="n">
-        <v>4829560</v>
+        <v>2755004</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST2814</t>
+          <t>CUST1759</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11293520</v>
+        <v>19464237</v>
       </c>
       <c r="E54" t="n">
-        <v>1767668</v>
+        <v>3640924</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST2526</t>
+          <t>CUST9892</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>21191169</v>
+        <v>15015879</v>
       </c>
       <c r="E55" t="n">
-        <v>3872789</v>
+        <v>2339725</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST7023</t>
+          <t>CUST9066</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13549345</v>
+        <v>21545298</v>
       </c>
       <c r="E56" t="n">
-        <v>1916667</v>
+        <v>3049369</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4793</t>
+          <t>CUST2085</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24059307</v>
+        <v>13140194</v>
       </c>
       <c r="E57" t="n">
-        <v>2594918</v>
+        <v>1634341</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST2790</t>
+          <t>CUST7132</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20734795</v>
+        <v>21571035</v>
       </c>
       <c r="E58" t="n">
-        <v>3580971</v>
+        <v>2951929</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST4434</t>
+          <t>CUST6398</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8729673</v>
+        <v>21588010</v>
       </c>
       <c r="E59" t="n">
-        <v>1693746</v>
+        <v>2939093</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST2138</t>
+          <t>CUST2591</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11098370</v>
+        <v>14922219</v>
       </c>
       <c r="E60" t="n">
-        <v>1411177</v>
+        <v>2736537</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST7388</t>
+          <t>CUST3947</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12865479</v>
+        <v>16202518</v>
       </c>
       <c r="E61" t="n">
-        <v>1731969</v>
+        <v>3236855</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6809842</v>
+        <v>11780130</v>
       </c>
       <c r="E2" t="n">
-        <v>1309334</v>
+        <v>1602519</v>
       </c>
     </row>
     <row r="3">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.8</v>
+        <v>62.9</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4847699</v>
+        <v>3000754</v>
       </c>
       <c r="E5" t="n">
-        <v>648746</v>
+        <v>608024</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3880837</v>
+        <v>8871437</v>
       </c>
       <c r="E6" t="n">
-        <v>701244</v>
+        <v>1004609</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2</v>
+        <v>69.7</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6180089</v>
+        <v>7159305</v>
       </c>
       <c r="E7" t="n">
-        <v>1622690</v>
+        <v>1667850</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>15128108</v>
+        <v>8872087</v>
       </c>
       <c r="E8" t="n">
-        <v>1788722</v>
+        <v>2456311</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>4899638</v>
+        <v>3264512</v>
       </c>
       <c r="E9" t="n">
-        <v>1356277</v>
+        <v>887916</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7086921</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1303376</v>
       </c>
     </row>
     <row r="11">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.5</v>
+        <v>68.3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>6145391</v>
+        <v>7569726</v>
       </c>
       <c r="E12" t="n">
-        <v>1090453</v>
+        <v>1773033</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.1</v>
+        <v>66.8</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>6484589</v>
+        <v>2669333</v>
       </c>
       <c r="E13" t="n">
-        <v>1541169</v>
+        <v>792116</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>6142024</v>
+        <v>8388954</v>
       </c>
       <c r="E14" t="n">
-        <v>1101369</v>
+        <v>1999268</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.6</v>
+        <v>73.2</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>5908965</v>
+        <v>6365796</v>
       </c>
       <c r="E15" t="n">
-        <v>1221201</v>
+        <v>1567983</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4782829</v>
+        <v>6356785</v>
       </c>
       <c r="E16" t="n">
-        <v>498325</v>
+        <v>795226</v>
       </c>
     </row>
     <row r="17">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.40000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>12162959</v>
+        <v>14447241</v>
       </c>
       <c r="E19" t="n">
-        <v>3455462</v>
+        <v>4148567</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5426951</v>
+        <v>3594420</v>
       </c>
       <c r="E20" t="n">
-        <v>976865</v>
+        <v>580978</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>5876311</v>
+        <v>12880727</v>
       </c>
       <c r="E21" t="n">
-        <v>1128868</v>
+        <v>2270709</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.3</v>
+        <v>80</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>3588900</v>
+        <v>7044083</v>
       </c>
       <c r="E22" t="n">
-        <v>488440</v>
+        <v>1888964</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.59999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>5394854</v>
+        <v>5349528</v>
       </c>
       <c r="E23" t="n">
-        <v>1450875</v>
+        <v>1544587</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1440186</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>319940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6634870</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>951449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>2363688</v>
+        <v>2619746</v>
       </c>
       <c r="E26" t="n">
-        <v>254648</v>
+        <v>689013</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>10467953</v>
+        <v>8570243</v>
       </c>
       <c r="E27" t="n">
-        <v>1613688</v>
+        <v>1261676</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.3</v>
+        <v>66.5</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>18484284</v>
+        <v>2827883</v>
       </c>
       <c r="E28" t="n">
-        <v>2882460</v>
+        <v>795391</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.7</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>13486644</v>
+        <v>3481682</v>
       </c>
       <c r="E29" t="n">
-        <v>3545533</v>
+        <v>842192</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>12799892</v>
+        <v>12216249</v>
       </c>
       <c r="E30" t="n">
-        <v>2114156</v>
+        <v>1647343</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3831248</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>650777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2577515</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>330591</v>
       </c>
     </row>
   </sheetData>
